--- a/PSIICEF_BT_S4_corrected/LaiskReactions.xlsx
+++ b/PSIICEF_BT_S4_corrected/LaiskReactions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fc8f77081653329b/Documents/Rutgers/PSII/PSIICEF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fc8f77081653329b/Documents/GitHub/PSII/PSIICEF_BT_S4_corrected/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA1526C-1F5D-4C13-BE51-CF1A5C96CB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{0075977E-25A5-4D7D-BB41-5B5FF1ECA842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="2925" windowWidth="18420" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="724" uniqueCount="386">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="692" uniqueCount="369">
   <si>
     <t xml:space="preserve">S0YoPoAo + PQ -&gt; S0YoPoAoBoo </t>
   </si>
@@ -80,9 +80,6 @@
     <t>jd23</t>
   </si>
   <si>
-    <t>jd30</t>
-  </si>
-  <si>
     <t xml:space="preserve">S0YoPrAoBoo -&gt; S0YoPrAo + PQ </t>
   </si>
   <si>
@@ -542,54 +539,6 @@
     <t>S2YoPrArBrr -&gt; S3YrPrArBrr + Hl</t>
   </si>
   <si>
-    <t>S3YoPrArBrr + 2 H20_substrate -&gt; S0YrPrArBrr + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoArBrr + 2 H20_substrate -&gt; S0YoPrArBrr + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrAoBrr + 2 H20_substrate -&gt; S0YrPrAoBrr + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrArBro + 2 H20_substrate -&gt; S0YrPrArBro + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrArBoo + 2 H20_substrate -&gt; S0YrPrArBoo + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoAoBrr + 2 H20_substrate -&gt; S0YoPrAoBrr + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoArBro + 2 H20_substrate -&gt; S0YoPrArBro + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrAoBro + 2 H20_substrate -&gt; S0YrPrAoBro + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrAr + 2 H20_substrate -&gt; S0YrPrAr + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrAo + 2 H20_substrate -&gt; S0YrPrAo + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoAoBro + 2 H20_substrate -&gt; S0YoPrAoBro + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoArBoo + 2 H20_substrate -&gt; S0YoPrArBoo + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrAoBoo + 2 H20_substrate -&gt; S0YrPrAoBoo + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoAr + 2 H20_substrate -&gt; S0YoPrAr + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoAoBoo + 2 H20_substrate -&gt; S0YoPrAoBoo + O2 + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoAo + 2 H20_substrate -&gt; S0YoPrAo + O2 + 2 Hl</t>
-  </si>
-  <si>
     <t>H20_solvent -&gt;  H20_substrate</t>
   </si>
   <si>
@@ -908,54 +857,6 @@
     <t>jd40</t>
   </si>
   <si>
-    <t>S3YoPoAo -&gt; S0YoPrAo + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoAoBoo -&gt; S0YoPrAoBoo + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoAr -&gt; S0YoPrAr + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrAoBoo -&gt; S0YrPrAoBoo + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoArBoo -&gt; S0YoPrArBoo + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoAoBro -&gt; S0YoPrAoBro + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrAo -&gt; S0YrPrAo + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrAr -&gt; S0YrPrAr + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrAoBro -&gt; S0YrPrAoBro + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoArBro -&gt; S0YoPrArBro + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoAoBrr -&gt; S0YoPrAoBrr + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrArBoo -&gt; S0YrPrArBoo + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrArBro -&gt; S0YrPrArBro + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrAoBrr -&gt; S0YrPrAoBrr + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPoArBrr -&gt; S0YoPrArBrr + 2 Hl</t>
-  </si>
-  <si>
-    <t>S3YoPrArBrr -&gt; S0YrPrArBrr + 2 Hl</t>
-  </si>
-  <si>
     <t xml:space="preserve">S4YoPoArBoo -&gt; S4YoPoAoBro </t>
   </si>
   <si>
@@ -1191,6 +1092,54 @@
   </si>
   <si>
     <t>S3YoPrArBro -&gt; S2YrPrAoBoo</t>
+  </si>
+  <si>
+    <t>S3YoPoAo -&gt; S4YoPrAo + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPoAoBoo -&gt; S4YoPrAoBoo + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPoAoBro -&gt; S4YoPrAoBro + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPoAoBrr -&gt; S4YoPrAoBrr + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPoAr -&gt; S4YoPrAr + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPoArBoo -&gt; S4YoPrArBoo + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPoArBro -&gt; S4YoPrArBro + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPoArBrr -&gt; S4YoPrArBrr + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPrAo -&gt; S4YrPrAo + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPrAoBoo -&gt; S4YrPrAoBoo + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPrAoBro -&gt; S4YrPrAoBro + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPrAoBrr -&gt; S4YrPrAoBrr + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPrAr -&gt; S4YrPrAr + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPrArBoo -&gt; S4YrPrArBoo + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPrArBro -&gt; S4YrPrArBro + 2 Hl</t>
+  </si>
+  <si>
+    <t>S3YoPrArBrr -&gt; S4YrPrArBrr + 2 Hl</t>
   </si>
 </sst>
 </file>
@@ -1651,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E384"/>
+  <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1665,95 +1614,95 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -1761,7 +1710,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -1769,7 +1718,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1777,7 +1726,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -1785,7 +1734,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -1793,7 +1742,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -1801,7 +1750,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -1809,7 +1758,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -1817,7 +1766,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -1825,7 +1774,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
@@ -1833,7 +1782,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
@@ -1841,7 +1790,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
@@ -1849,7 +1798,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
@@ -1857,7 +1806,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
@@ -1865,7 +1814,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
@@ -1873,7 +1822,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
@@ -1881,66 +1830,66 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1953,7 +1902,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
@@ -1961,7 +1910,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>6</v>
@@ -1969,7 +1918,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
@@ -1977,7 +1926,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
@@ -1985,7 +1934,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>6</v>
@@ -2001,7 +1950,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -2009,7 +1958,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
@@ -2017,7 +1966,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>1</v>
@@ -2025,7 +1974,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -2033,7 +1982,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1</v>
@@ -2041,7 +1990,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>11</v>
@@ -2049,7 +1998,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
@@ -2057,7 +2006,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
@@ -2065,7 +2014,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>11</v>
@@ -2073,7 +2022,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>11</v>
@@ -2081,7 +2030,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>11</v>
@@ -2089,7 +2038,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
@@ -2097,7 +2046,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>10</v>
@@ -2105,7 +2054,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
@@ -2113,7 +2062,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>10</v>
@@ -2121,7 +2070,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
@@ -2129,7 +2078,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
@@ -2137,79 +2086,79 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>13</v>
@@ -2217,7 +2166,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -2225,7 +2174,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>13</v>
@@ -2233,7 +2182,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>13</v>
@@ -2241,7 +2190,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>13</v>
@@ -2249,7 +2198,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>13</v>
@@ -2257,7 +2206,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>13</v>
@@ -2265,7 +2214,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>13</v>
@@ -2273,7 +2222,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>13</v>
@@ -2281,7 +2230,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>13</v>
@@ -2289,7 +2238,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>13</v>
@@ -2297,7 +2246,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>13</v>
@@ -2305,7 +2254,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>13</v>
@@ -2313,7 +2262,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>13</v>
@@ -2321,7 +2270,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>13</v>
@@ -2329,7 +2278,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>13</v>
@@ -2337,66 +2286,66 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,7 +2358,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>6</v>
@@ -2417,7 +2366,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>6</v>
@@ -2425,7 +2374,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>6</v>
@@ -2433,7 +2382,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>6</v>
@@ -2441,7 +2390,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>6</v>
@@ -2457,7 +2406,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>1</v>
@@ -2465,7 +2414,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>1</v>
@@ -2473,7 +2422,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>1</v>
@@ -2481,7 +2430,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>1</v>
@@ -2489,7 +2438,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>1</v>
@@ -2497,7 +2446,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>11</v>
@@ -2505,7 +2454,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>11</v>
@@ -2513,7 +2462,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>11</v>
@@ -2521,7 +2470,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>11</v>
@@ -2529,7 +2478,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>11</v>
@@ -2537,7 +2486,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>11</v>
@@ -2545,7 +2494,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>10</v>
@@ -2553,7 +2502,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>10</v>
@@ -2561,7 +2510,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>10</v>
@@ -2569,7 +2518,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>10</v>
@@ -2577,7 +2526,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>10</v>
@@ -2585,7 +2534,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>10</v>
@@ -2593,135 +2542,135 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B126" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B127" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B128" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>14</v>
@@ -2729,7 +2678,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>14</v>
@@ -2737,7 +2686,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>14</v>
@@ -2745,7 +2694,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>14</v>
@@ -2753,7 +2702,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>14</v>
@@ -2761,7 +2710,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>14</v>
@@ -2769,7 +2718,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>14</v>
@@ -2777,7 +2726,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>14</v>
@@ -2785,7 +2734,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>14</v>
@@ -2793,7 +2742,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>14</v>
@@ -2801,7 +2750,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>14</v>
@@ -2809,7 +2758,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>14</v>
@@ -2817,7 +2766,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>14</v>
@@ -2825,7 +2774,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>14</v>
@@ -2833,7 +2782,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>14</v>
@@ -2841,7 +2790,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>14</v>
@@ -2849,66 +2798,66 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2921,7 +2870,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>6</v>
@@ -2929,7 +2878,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>6</v>
@@ -2937,7 +2886,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>6</v>
@@ -2945,7 +2894,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>6</v>
@@ -2953,7 +2902,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>6</v>
@@ -2969,7 +2918,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>1</v>
@@ -2977,7 +2926,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>1</v>
@@ -2985,7 +2934,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>1</v>
@@ -2993,7 +2942,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>1</v>
@@ -3001,7 +2950,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>1</v>
@@ -3009,103 +2958,103 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>11</v>
@@ -3113,7 +3062,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>11</v>
@@ -3121,7 +3070,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>11</v>
@@ -3129,7 +3078,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>11</v>
@@ -3137,7 +3086,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>11</v>
@@ -3145,7 +3094,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>11</v>
@@ -3153,7 +3102,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>10</v>
@@ -3161,7 +3110,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>10</v>
@@ -3169,7 +3118,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>10</v>
@@ -3177,7 +3126,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>10</v>
@@ -3185,7 +3134,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>10</v>
@@ -3193,7 +3142,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>10</v>
@@ -3201,1496 +3150,1368 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B202" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B203" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="B204" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B205" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B206" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="B207" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>184</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>15</v>
+        <v>353</v>
+      </c>
+      <c r="B212" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>183</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>15</v>
+        <v>354</v>
+      </c>
+      <c r="B213" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>179</v>
+        <v>355</v>
       </c>
       <c r="B214" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>174</v>
+        <v>356</v>
       </c>
       <c r="B215" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>182</v>
+        <v>357</v>
       </c>
       <c r="B216" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>180</v>
+        <v>358</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>175</v>
+        <v>359</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>178</v>
+        <v>361</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>181</v>
+        <v>362</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>176</v>
+        <v>363</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>171</v>
+        <v>364</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>177</v>
+        <v>365</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>173</v>
+        <v>366</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>172</v>
+        <v>367</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>169</v>
+        <v>368</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="B228" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B229" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="B230" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="B231" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="B232" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="B233" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="B234" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="B235" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="B236" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="B237" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>299</v>
-      </c>
-      <c r="B238" t="s">
-        <v>289</v>
+        <v>60</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>304</v>
-      </c>
-      <c r="B239" t="s">
-        <v>289</v>
+        <v>73</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>298</v>
-      </c>
-      <c r="B240" t="s">
-        <v>289</v>
+        <v>100</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>302</v>
-      </c>
-      <c r="B241" t="s">
-        <v>289</v>
+        <v>122</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>303</v>
-      </c>
-      <c r="B242" t="s">
-        <v>289</v>
+        <v>27</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>306</v>
-      </c>
-      <c r="B243" t="s">
-        <v>289</v>
+        <v>179</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>372</v>
-      </c>
-      <c r="B244" t="s">
-        <v>373</v>
+        <v>171</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>374</v>
-      </c>
-      <c r="B245" t="s">
-        <v>373</v>
+        <v>109</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>375</v>
-      </c>
-      <c r="B246" t="s">
-        <v>373</v>
+        <v>9</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>376</v>
-      </c>
-      <c r="B247" t="s">
-        <v>373</v>
+        <v>175</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>377</v>
-      </c>
-      <c r="B248" t="s">
-        <v>373</v>
+        <v>18</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>378</v>
-      </c>
-      <c r="B249" t="s">
-        <v>379</v>
+        <v>51</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>380</v>
-      </c>
-      <c r="B250" t="s">
-        <v>379</v>
+        <v>47</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>381</v>
-      </c>
-      <c r="B251" t="s">
-        <v>379</v>
+        <v>86</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>382</v>
-      </c>
-      <c r="B252" t="s">
-        <v>379</v>
+        <v>4</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>383</v>
-      </c>
-      <c r="B253" t="s">
-        <v>379</v>
+        <v>32</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>61</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>74</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>101</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>123</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>58</v>
+        <v>90</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>28</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>25</v>
+        <v>234</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>196</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>25</v>
+        <v>260</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>188</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>25</v>
+        <v>261</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>110</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>25</v>
+        <v>235</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>9</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>6</v>
+        <v>262</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>192</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>6</v>
+        <v>236</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>19</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>6</v>
+        <v>247</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>6</v>
+        <v>243</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>48</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>6</v>
+        <v>267</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>87</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>6</v>
+        <v>248</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>4</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>1</v>
+        <v>266</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>33</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>1</v>
+        <v>249</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>251</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>258</v>
+        <v>229</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>277</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>258</v>
+        <v>128</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>278</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>258</v>
+        <v>193</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>252</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>258</v>
+        <v>209</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>279</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>258</v>
+        <v>205</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>258</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>264</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>260</v>
+        <v>213</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>285</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>260</v>
+        <v>221</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>284</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>260</v>
+        <v>274</v>
+      </c>
+      <c r="B282" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>265</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>260</v>
+        <v>275</v>
+      </c>
+      <c r="B283" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>283</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>260</v>
+        <v>276</v>
+      </c>
+      <c r="B284" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>266</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>260</v>
+        <v>277</v>
+      </c>
+      <c r="B285" t="s">
+        <v>39</v>
       </c>
       <c r="E285" s="1"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>242</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>11</v>
+        <v>278</v>
+      </c>
+      <c r="B286" t="s">
+        <v>39</v>
       </c>
       <c r="E286" s="1"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>218</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>11</v>
+        <v>279</v>
+      </c>
+      <c r="B287" t="s">
+        <v>39</v>
       </c>
       <c r="E287" s="1"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>214</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>11</v>
+        <v>280</v>
+      </c>
+      <c r="B288" t="s">
+        <v>79</v>
       </c>
       <c r="E288" s="1"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>250</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>11</v>
+        <v>281</v>
+      </c>
+      <c r="B289" t="s">
+        <v>79</v>
       </c>
       <c r="E289" s="1"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>246</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>11</v>
+        <v>282</v>
+      </c>
+      <c r="B290" t="s">
+        <v>79</v>
       </c>
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>129</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>11</v>
+        <v>315</v>
+      </c>
+      <c r="B291" t="s">
+        <v>273</v>
       </c>
       <c r="E291" s="1"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>210</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>10</v>
+        <v>316</v>
+      </c>
+      <c r="B292" t="s">
+        <v>273</v>
       </c>
       <c r="E292" s="1"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>226</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>10</v>
+        <v>317</v>
+      </c>
+      <c r="B293" t="s">
+        <v>273</v>
       </c>
       <c r="E293" s="1"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>222</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>10</v>
+        <v>318</v>
+      </c>
+      <c r="B294" t="s">
+        <v>273</v>
       </c>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>234</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>10</v>
+        <v>319</v>
+      </c>
+      <c r="B295" t="s">
+        <v>273</v>
       </c>
       <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>230</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>10</v>
+        <v>320</v>
+      </c>
+      <c r="B296" t="s">
+        <v>273</v>
       </c>
       <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>238</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>10</v>
+        <v>321</v>
+      </c>
+      <c r="B297" t="s">
+        <v>273</v>
       </c>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B298" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="B299" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B300" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="B301" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B302" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B303" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B304" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B305" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B306" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B307" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B308" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B309" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="B310" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="B311" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B312" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="B313" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="B314" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>356</v>
+        <v>283</v>
       </c>
       <c r="B315" t="s">
-        <v>290</v>
+        <v>57</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="B316" t="s">
-        <v>290</v>
+        <v>57</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>358</v>
+        <v>285</v>
       </c>
       <c r="B317" t="s">
-        <v>290</v>
+        <v>57</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>359</v>
+        <v>286</v>
       </c>
       <c r="B318" t="s">
-        <v>290</v>
+        <v>57</v>
       </c>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>360</v>
+        <v>287</v>
       </c>
       <c r="B319" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>361</v>
+        <v>288</v>
       </c>
       <c r="B320" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>362</v>
+        <v>289</v>
       </c>
       <c r="B321" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="B322" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="E322" s="1"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>364</v>
+        <v>291</v>
       </c>
       <c r="B323" t="s">
-        <v>290</v>
+        <v>6</v>
       </c>
       <c r="E323" s="1"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="B324" t="s">
-        <v>290</v>
+        <v>6</v>
       </c>
       <c r="E324" s="1"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>366</v>
+        <v>292</v>
       </c>
       <c r="B325" t="s">
-        <v>290</v>
+        <v>6</v>
       </c>
       <c r="E325" s="1"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="B326" t="s">
-        <v>290</v>
+        <v>6</v>
       </c>
       <c r="E326" s="1"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="B327" t="s">
-        <v>290</v>
+        <v>6</v>
       </c>
       <c r="E327" s="1"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="B328" t="s">
-        <v>290</v>
+        <v>6</v>
       </c>
       <c r="E328" s="1"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="B329" t="s">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="B330" t="s">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="E330" s="1"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B331" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E331" s="1"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="B332" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E332" s="1"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B333" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E333" s="1"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B334" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E334" s="1"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B335" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E335" s="1"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="B336" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E336" s="1"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="B337" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E337" s="1"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B338" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E338" s="1"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B339" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E339" s="1"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B340" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E340" s="1"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B341" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E341" s="1"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B342" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E342" s="1"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B343" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E343" s="1"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B344" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E344" s="1"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B345" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E345" s="1"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B346" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E346" s="1"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>331</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1</v>
-      </c>
+      <c r="B347" s="2"/>
       <c r="E347" s="2"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>333</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1</v>
-      </c>
+      <c r="B348" s="2"/>
       <c r="E348" s="1"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>334</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1</v>
-      </c>
+      <c r="B349" s="2"/>
       <c r="E349" s="1"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>335</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1</v>
-      </c>
+      <c r="B350" s="2"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>338</v>
-      </c>
-      <c r="B351" t="s">
-        <v>11</v>
-      </c>
+      <c r="B351" s="2"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>337</v>
-      </c>
-      <c r="B352" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>336</v>
-      </c>
-      <c r="B353" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>340</v>
-      </c>
-      <c r="B354" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>339</v>
-      </c>
-      <c r="B355" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>341</v>
-      </c>
-      <c r="B356" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>342</v>
-      </c>
-      <c r="B357" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>344</v>
-      </c>
-      <c r="B358" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>343</v>
-      </c>
-      <c r="B359" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>346</v>
-      </c>
-      <c r="B360" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>345</v>
-      </c>
-      <c r="B361" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>347</v>
-      </c>
-      <c r="B362" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="2"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="2"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="2"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="2"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="2"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="2"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="2"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="2"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="2"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="2"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="2"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" s="2"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" s="2"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" s="2"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" s="2"/>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" s="2"/>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" s="2"/>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" s="2"/>
-    </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B371" s="2"/>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B372" s="2"/>
-    </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" s="2"/>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" s="2"/>
-    </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B375" s="2"/>
-    </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" s="2"/>
-    </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B377" s="2"/>
-    </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B378" s="2"/>
-    </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B379" s="2"/>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" s="2"/>
-    </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B381" s="2"/>
-    </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B382" s="2"/>
-    </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B383" s="2"/>
-    </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B384" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B59">
     <sortCondition ref="B3:B59"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A339:A362">
+  <conditionalFormatting sqref="A323:A346">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A298:A306 A331:A362">
+  <conditionalFormatting sqref="A282:A290 A315:A346">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PSIICEF_BT_S4_corrected/LaiskReactions.xlsx
+++ b/PSIICEF_BT_S4_corrected/LaiskReactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fc8f77081653329b/Documents/GitHub/PSII/PSIICEF_BT_S4_corrected/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{0075977E-25A5-4D7D-BB41-5B5FF1ECA842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{19351AB7-EA76-4DF1-9F16-A4AD782B738A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="692" uniqueCount="369">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="686" uniqueCount="368">
   <si>
     <t xml:space="preserve">S0YoPoAo + PQ -&gt; S0YoPoAoBoo </t>
   </si>
@@ -846,9 +846,6 @@
   </si>
   <si>
     <t>S2YoPrAoBrr -&gt; S1YrPrAoBoo</t>
-  </si>
-  <si>
-    <t>S2YoPrArBro -&gt; S1YrPrAoBro</t>
   </si>
   <si>
     <t>jd34</t>
@@ -1201,7 +1198,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1600,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E368"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A342" sqref="A342:XFD343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1614,23 +1641,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>180</v>
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -1638,47 +1665,47 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>79</v>
@@ -1686,23 +1713,23 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>133</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>135</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -1710,7 +1737,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -1718,7 +1745,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1726,7 +1753,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -1734,7 +1761,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -1742,7 +1769,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -1750,7 +1777,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -1758,7 +1785,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -1766,7 +1793,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -1774,7 +1801,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
@@ -1782,7 +1809,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
@@ -1790,7 +1817,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
@@ -1798,7 +1825,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
@@ -1806,7 +1833,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
@@ -1814,23 +1841,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>57</v>
@@ -1838,7 +1865,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>57</v>
@@ -1846,23 +1873,23 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>176</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>24</v>
@@ -1870,7 +1897,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>24</v>
@@ -1878,23 +1905,23 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
@@ -1902,15 +1929,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>6</v>
@@ -1918,31 +1945,31 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
@@ -1950,7 +1977,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -1958,7 +1985,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
@@ -1966,7 +1993,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>1</v>
@@ -1974,23 +2001,23 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>11</v>
@@ -1998,7 +2025,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
@@ -2006,7 +2033,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
@@ -2014,7 +2041,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>11</v>
@@ -2022,23 +2049,23 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
@@ -2046,15 +2073,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>206</v>
-      </c>
-      <c r="B55" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
@@ -2062,31 +2089,31 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>214</v>
-      </c>
-      <c r="B57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>34</v>
@@ -2094,47 +2121,47 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>39</v>
+        <v>102</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>79</v>
@@ -2142,23 +2169,23 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>79</v>
+        <v>144</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>79</v>
+        <v>143</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>13</v>
@@ -2166,7 +2193,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>13</v>
@@ -2174,7 +2201,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>13</v>
@@ -2182,7 +2209,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>13</v>
@@ -2190,7 +2217,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>13</v>
@@ -2198,7 +2225,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>13</v>
@@ -2206,7 +2233,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>13</v>
@@ -2214,7 +2241,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>13</v>
@@ -2222,7 +2249,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>13</v>
@@ -2230,7 +2257,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>13</v>
@@ -2238,7 +2265,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>13</v>
@@ -2246,7 +2273,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>13</v>
@@ -2254,7 +2281,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>13</v>
@@ -2262,7 +2289,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>13</v>
@@ -2270,23 +2297,23 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>57</v>
@@ -2294,7 +2321,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>57</v>
@@ -2302,23 +2329,23 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>120</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>57</v>
+        <v>177</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>24</v>
@@ -2326,7 +2353,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>24</v>
@@ -2334,23 +2361,23 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>6</v>
@@ -2358,15 +2385,15 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>173</v>
-      </c>
-      <c r="B94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>6</v>
@@ -2374,31 +2401,31 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>49</v>
-      </c>
-      <c r="B96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>1</v>
@@ -2406,7 +2433,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>1</v>
@@ -2414,7 +2441,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>1</v>
@@ -2422,7 +2449,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>1</v>
@@ -2430,23 +2457,23 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>11</v>
@@ -2454,7 +2481,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>11</v>
@@ -2462,7 +2489,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>11</v>
@@ -2470,7 +2497,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>11</v>
@@ -2478,23 +2505,23 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>10</v>
@@ -2502,15 +2529,15 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>207</v>
-      </c>
-      <c r="B112" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>10</v>
@@ -2518,31 +2545,31 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>215</v>
-      </c>
-      <c r="B114" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>34</v>
@@ -2550,47 +2577,47 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>41</v>
-      </c>
-      <c r="B120" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>93</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>79</v>
@@ -2598,23 +2625,23 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>103</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>79</v>
+        <v>270</v>
+      </c>
+      <c r="B124" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>117</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>79</v>
+        <v>350</v>
+      </c>
+      <c r="B125" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B126" t="s">
         <v>255</v>
@@ -2622,55 +2649,55 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>271</v>
-      </c>
-      <c r="B127" t="s">
-        <v>255</v>
+        <v>186</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>256</v>
-      </c>
-      <c r="B128" t="s">
-        <v>255</v>
+        <v>187</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>186</v>
-      </c>
-      <c r="B129" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>187</v>
-      </c>
-      <c r="B130" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>188</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>184</v>
+        <v>134</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>189</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>184</v>
+        <v>136</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>14</v>
@@ -2678,7 +2705,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>14</v>
@@ -2686,7 +2713,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>14</v>
@@ -2694,7 +2721,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>14</v>
@@ -2702,7 +2729,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>14</v>
@@ -2710,7 +2737,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>14</v>
@@ -2718,7 +2745,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>14</v>
@@ -2726,7 +2753,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>14</v>
@@ -2734,7 +2761,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>14</v>
@@ -2742,7 +2769,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>14</v>
@@ -2750,7 +2777,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>14</v>
@@ -2758,7 +2785,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>14</v>
@@ -2766,7 +2793,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>14</v>
@@ -2774,7 +2801,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>14</v>
@@ -2782,23 +2809,23 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>57</v>
@@ -2806,7 +2833,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>57</v>
@@ -2814,23 +2841,23 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>99</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>57</v>
+        <v>26</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>121</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>57</v>
+        <v>178</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>24</v>
@@ -2838,7 +2865,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>24</v>
@@ -2846,23 +2873,23 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>6</v>
@@ -2870,15 +2897,15 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>174</v>
-      </c>
-      <c r="B158" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>6</v>
@@ -2886,31 +2913,31 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>50</v>
-      </c>
-      <c r="B160" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>1</v>
@@ -2918,7 +2945,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>1</v>
@@ -2926,7 +2953,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>1</v>
@@ -2934,7 +2961,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>1</v>
@@ -2942,23 +2969,23 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>63</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>1</v>
+        <v>239</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>89</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>1</v>
+        <v>257</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>240</v>
@@ -2966,7 +2993,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>240</v>
@@ -2974,7 +3001,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>240</v>
@@ -2982,7 +3009,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>240</v>
@@ -2990,23 +3017,23 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>242</v>
@@ -3014,7 +3041,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>242</v>
@@ -3022,7 +3049,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>242</v>
@@ -3030,7 +3057,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>242</v>
@@ -3038,23 +3065,23 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>265</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>242</v>
+        <v>224</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>246</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>242</v>
+        <v>200</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>11</v>
@@ -3062,7 +3089,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>11</v>
@@ -3070,7 +3097,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>11</v>
@@ -3078,7 +3105,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>11</v>
@@ -3086,23 +3113,23 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>10</v>
@@ -3110,15 +3137,15 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>208</v>
-      </c>
-      <c r="B188" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>10</v>
@@ -3126,31 +3153,31 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>216</v>
-      </c>
-      <c r="B190" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>34</v>
@@ -3158,47 +3185,47 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>42</v>
-      </c>
-      <c r="B196" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>94</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>39</v>
+        <v>104</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>79</v>
@@ -3206,23 +3233,23 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>104</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>79</v>
+        <v>254</v>
+      </c>
+      <c r="B200" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>118</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>79</v>
+        <v>269</v>
+      </c>
+      <c r="B201" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>256</v>
+        <v>351</v>
       </c>
       <c r="B202" t="s">
         <v>255</v>
@@ -3230,34 +3257,34 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>270</v>
-      </c>
-      <c r="B203" t="s">
-        <v>255</v>
+        <v>250</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>351</v>
-      </c>
-      <c r="B204" t="s">
-        <v>255</v>
+        <v>251</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>254</v>
-      </c>
-      <c r="B205" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>269</v>
-      </c>
-      <c r="B206" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3265,316 +3292,316 @@
         <v>352</v>
       </c>
       <c r="B207" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>250</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>185</v>
+        <v>353</v>
+      </c>
+      <c r="B208" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>251</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>185</v>
+        <v>354</v>
+      </c>
+      <c r="B209" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>252</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>185</v>
+        <v>355</v>
+      </c>
+      <c r="B210" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>253</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>185</v>
+        <v>356</v>
+      </c>
+      <c r="B211" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B212" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B213" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B214" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B215" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B216" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B217" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B218" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B219" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B220" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B221" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B222" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="B223" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="B224" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="B225" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="B226" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="B227" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B228" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B229" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B230" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B231" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B232" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>345</v>
-      </c>
-      <c r="B233" t="s">
-        <v>346</v>
+        <v>60</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>347</v>
-      </c>
-      <c r="B234" t="s">
-        <v>346</v>
+        <v>73</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>348</v>
-      </c>
-      <c r="B235" t="s">
-        <v>346</v>
+        <v>100</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>349</v>
-      </c>
-      <c r="B236" t="s">
-        <v>346</v>
+        <v>122</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>350</v>
-      </c>
-      <c r="B237" t="s">
-        <v>346</v>
+        <v>27</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>60</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>57</v>
+        <v>179</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>73</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>57</v>
+        <v>171</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>100</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>122</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>171</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>6</v>
@@ -3582,47 +3609,47 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>51</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>1</v>
@@ -3630,47 +3657,47 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>32</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>22</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>1</v>
+        <v>260</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>55</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>1</v>
+        <v>261</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>64</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>1</v>
+        <v>235</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>90</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>1</v>
+        <v>262</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>241</v>
@@ -3678,47 +3705,47 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>243</v>
@@ -3726,47 +3753,47 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>268</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>243</v>
+        <v>225</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>267</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>243</v>
+        <v>201</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>248</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>266</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>249</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>243</v>
+        <v>229</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>11</v>
@@ -3774,47 +3801,47 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>229</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>11</v>
+        <v>217</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>10</v>
@@ -3822,405 +3849,407 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>209</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>10</v>
+        <v>273</v>
+      </c>
+      <c r="B277" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>205</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>10</v>
+        <v>274</v>
+      </c>
+      <c r="B278" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>217</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>10</v>
+        <v>275</v>
+      </c>
+      <c r="B279" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>213</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>10</v>
+        <v>276</v>
+      </c>
+      <c r="B280" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>221</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>10</v>
+        <v>277</v>
+      </c>
+      <c r="B281" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B282" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B283" t="s">
-        <v>34</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E283" s="1"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B284" t="s">
-        <v>34</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E284" s="1"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B285" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E285" s="1"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="B286" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="E286" s="1"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="B287" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="E287" s="1"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="B288" t="s">
-        <v>79</v>
-      </c>
-      <c r="E288" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="B289" t="s">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="E289" s="1"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="B290" t="s">
-        <v>79</v>
-      </c>
-      <c r="E290" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="E290" s="1"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B291" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E291" s="1"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B292" t="s">
-        <v>273</v>
-      </c>
-      <c r="E292" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B293" t="s">
-        <v>273</v>
-      </c>
-      <c r="E293" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B294" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B295" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B296" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B297" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B298" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B299" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B300" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B301" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B302" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B303" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B304" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B305" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B306" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B307" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B308" t="s">
-        <v>273</v>
-      </c>
-      <c r="E308" s="2"/>
+        <v>272</v>
+      </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B309" t="s">
-        <v>273</v>
-      </c>
-      <c r="E309" s="2"/>
+        <v>272</v>
+      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="B310" t="s">
-        <v>273</v>
+        <v>57</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="B311" t="s">
-        <v>273</v>
+        <v>57</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="B312" t="s">
-        <v>273</v>
+        <v>57</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="B313" t="s">
-        <v>273</v>
+        <v>57</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="B314" t="s">
-        <v>273</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B315" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B316" t="s">
-        <v>57</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B317" t="s">
-        <v>57</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E317" s="2"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B318" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B319" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B320" t="s">
-        <v>24</v>
-      </c>
-      <c r="E320" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E320" s="1"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B321" t="s">
-        <v>24</v>
-      </c>
-      <c r="E321" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E321" s="1"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B322" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E322" s="1"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B323" t="s">
         <v>6</v>
@@ -4229,106 +4258,106 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B324" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E324" s="1"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B325" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E325" s="1"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B326" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E326" s="1"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B327" t="s">
-        <v>6</v>
-      </c>
-      <c r="E327" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B328" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E328" s="1"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B329" t="s">
         <v>1</v>
       </c>
-      <c r="E329" s="2"/>
+      <c r="E329" s="1"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B330" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E330" s="1"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B331" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E331" s="1"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B332" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E332" s="1"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B333" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E333" s="1"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B334" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E334" s="1"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B335" t="s">
         <v>11</v>
@@ -4337,52 +4366,52 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B336" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E336" s="1"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B337" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E337" s="1"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B338" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E338" s="1"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B339" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E339" s="1"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B340" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E340" s="1"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B341" t="s">
         <v>10</v>
@@ -4391,47 +4420,30 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>311</v>
-      </c>
-      <c r="B342" t="s">
-        <v>10</v>
-      </c>
-      <c r="E342" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>310</v>
-      </c>
-      <c r="B343" t="s">
-        <v>10</v>
-      </c>
-      <c r="E343" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>313</v>
-      </c>
-      <c r="B344" t="s">
-        <v>10</v>
-      </c>
+      <c r="B344" s="2"/>
       <c r="E344" s="1"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>312</v>
-      </c>
-      <c r="B345" t="s">
-        <v>10</v>
-      </c>
+      <c r="B345" s="2"/>
       <c r="E345" s="1"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>314</v>
-      </c>
-      <c r="B346" t="s">
-        <v>10</v>
-      </c>
+      <c r="B346" s="2"/>
       <c r="E346" s="1"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -4494,25 +4506,19 @@
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" s="2"/>
-    </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B367" s="2"/>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B59">
-    <sortCondition ref="B3:B59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B57">
+    <sortCondition ref="B1:B57"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A323:A346">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="A318:A341">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A282:A290 A315:A346">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <conditionalFormatting sqref="A277:A285 A310:A341">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
